--- a/medicine/Psychotrope/Observatoire_français_des_drogues_et_des_tendances_addictives/Observatoire_français_des_drogues_et_des_tendances_addictives.xlsx
+++ b/medicine/Psychotrope/Observatoire_français_des_drogues_et_des_tendances_addictives/Observatoire_français_des_drogues_et_des_tendances_addictives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Observatoire_fran%C3%A7ais_des_drogues_et_des_tendances_addictives</t>
+          <t>Observatoire_français_des_drogues_et_des_tendances_addictives</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Observatoire français des drogues et des tendances addictives (OFDT), est un organisme public créé en 1993, appelé Observatoire français des drogues et des toxicomanies jusqu'en 2022[1]. Depuis 1999, l’observation de l’OFDT porte sur les substances psychoactives licites et illicites. L'OFDT a exploré également la question des addictions sans produit (jeux de hasard et d'argent, écrans).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Observatoire français des drogues et des tendances addictives (OFDT), est un organisme public créé en 1993, appelé Observatoire français des drogues et des toxicomanies jusqu'en 2022. Depuis 1999, l’observation de l’OFDT porte sur les substances psychoactives licites et illicites. L'OFDT a exploré également la question des addictions sans produit (jeux de hasard et d'argent, écrans).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Observatoire_fran%C3%A7ais_des_drogues_et_des_tendances_addictives</t>
+          <t>Observatoire_français_des_drogues_et_des_tendances_addictives</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'observatoire a été créé en 1993 sous la forme d'un groupe d’intérêt public, pour permettre le recueil,  l’analyse, la diffusion, et la valorisation des données et des connaissances dans le domaine des addictions[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'observatoire a été créé en 1993 sous la forme d'un groupe d’intérêt public, pour permettre le recueil,  l’analyse, la diffusion, et la valorisation des données et des connaissances dans le domaine des addictions.
 Disposant d'une indépendance scientifique, l’OFDT, recueille, analyse, effectue la synthèse et la valorisation des connaissances dans le domaine des drogues et des addictions. Ce qui permet aux pouvoirs publics d'anticiper les évolutions afin de les aider dans leur décision. Ces données sont aussi accessibles aux professionnels et au public.
 Groupement d'intérêt public constitué entre les ministères concernés par la lutte contre les drogues et les toxicomanies et la Mission interministérielle de lutte contre les drogues et les conduites addictives (MILDECA), représentant l’Etat, et la Fédération nationale des observatoires régionaux de santé (FNORS), l’OFDT éclaire les pouvoirs publics, les professionnels du champ et le grand public sur le phénomène des drogues licites et illicites et des addictions. Il produit directement des connaissances et en assure la valorisation. Il s’attache également à rassembler l’ensemble des données disponibles relatives aux drogues et aux conduites addictives, en provenance de sources différentes (dont les services statistiques ministériels), dont il assure l’analyse et la synthèse en vue d’une mise à disposition des informations scientifiquement validées. Il assure par ailleurs un rôle d’aide à la décision publique en apportant son concours à la préparation et au suivi des objectifs des plans gouvernementaux de lutte contre les drogues et les addictions. Enfin, l’OFDT participe au dispositif d’alerte national sur les substances psychoactives.
 L’OFDT est le correspondant français (point focal) du REITOX (Réseau européen d’information sur les drogues et toxicomanies) coordonné par l’Observatoire européen des drogues et des toxicomanies (EMCDDA), agence de l'Union européenne basée à Lisbonne.
